--- a/target/test-classes/com/nmc/api/testdata/regData.xlsx
+++ b/target/test-classes/com/nmc/api/testdata/regData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>writ</t>
   </si>
@@ -24,6 +24,21 @@
   </si>
   <si>
     <t>newValue</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>helloworld</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>helloworld1</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -76,13 +91,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
